--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nodal-Tdgf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nodal-Tdgf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tdgf1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H2">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I2">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J2">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="N2">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005234581261</v>
+        <v>0.06315992786166666</v>
       </c>
       <c r="R2">
-        <v>0.047111231349</v>
+        <v>0.568439350755</v>
       </c>
       <c r="S2">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="T2">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,13 +602,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H3">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I3">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J3">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,10 +617,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="N3">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.002058908635</v>
+        <v>0.02706803351944444</v>
       </c>
       <c r="R3">
-        <v>0.018530177715</v>
+        <v>0.243612301675</v>
       </c>
       <c r="S3">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="T3">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H4">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I4">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J4">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,10 +679,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="N4">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,78 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0008745172275</v>
+        <v>0.01601280014555556</v>
       </c>
       <c r="R4">
-        <v>0.005247103365</v>
+        <v>0.14411520131</v>
       </c>
       <c r="S4">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="T4">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.0837685</v>
+      </c>
+      <c r="H5">
+        <v>0.167537</v>
+      </c>
+      <c r="I5">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J5">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.08586166666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.257585</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.007192503024166666</v>
+      </c>
+      <c r="R5">
+        <v>0.043155018145</v>
+      </c>
+      <c r="S5">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="T5">
+        <v>0.04318430263474329</v>
       </c>
     </row>
   </sheetData>
